--- a/data/trans_camb/P9_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,11</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,58</t>
+          <t>-1,49; 0,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 1,21</t>
+          <t>-1,03; 1,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,7</t>
+          <t>-0,93; 0,78</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>-36,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,9%</t>
+          <t>-8,93%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-88,39; 168,39</t>
+          <t>-88,05; 157,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,41; 170,82</t>
+          <t>-63,81; 277,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 95,69</t>
+          <t>-59,62; 98,76</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 0,0</t>
+          <t>-0,85; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,56</t>
+          <t>-0,59; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,65</t>
+          <t>-0,4; 0,72</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>55,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>9,81%</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 16,32</t>
+          <t>-1,88; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,67</t>
+          <t>-3,96; 4,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 7,88</t>
+          <t>-2,3; 3,49</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>404,91%</t>
+          <t>121,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>-1,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>28,18%</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 610,11</t>
+          <t>-100,0; 570,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-61,37; 970,84</t>
+          <t>-82,55; 474,0</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,03</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,77</t>
+          <t>-0,76; 0,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,13</t>
+          <t>-0,72; 1,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 0,95</t>
+          <t>-0,6; 0,59</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>26,9%</t>
+          <t>-17,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>15,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,41; 434,27</t>
+          <t>-75,85; 181,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-49,24; 175,0</t>
+          <t>-50,74; 163,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 137,99</t>
+          <t>-51,5; 86,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P9_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P9_4-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,199 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.413966565100908</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.09609356723962129</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1473104458886937</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 0,67</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,03; 1,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 0,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.489183912638023</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.089235404548894</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9793337846728688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-36,4%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>13,47%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,93%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.6283425985909459</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.536194716532235</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.7002722315502626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-88,05; 157,89</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-63,81; 277,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-59,62; 98,76</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.3709527901171755</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.07688859267013025</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1242277018837703</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.8807749226995</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6715818396381472</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.6168176105954118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,85; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 1,83</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,72</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.624621677104559</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.548794925003418</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.928086502882992</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>55,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,81%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-0.1720506193910876</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.1761561763822875</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.002920210104671861</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.8535151132528609</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.5957893727291408</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4168794747370865</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.63257970615111</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6431630680328168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 5,2</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 4,41</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,3; 3,49</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.4271714816371636</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.009959468637045036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>121,22%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-1,38%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>28,18%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="inlineStr"/>
+      <c r="E14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 570,41</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-82,55; 474,0</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +763,205 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>3.599788552151208</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.1331083439127863</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>1.757755534709477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-0,76; 0,56</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,72; 1,2</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,6; 0,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.943521270610699</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-3.989347873536395</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-1.296766788449173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-17,11%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>15,29%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>3,05%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>14.0339430034939</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>4.084048279924145</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>7.3884683511558</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-75,85; 181,78</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-50,74; 163,94</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-51,5; 86,52</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>3.884754181370087</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.04446072025931901</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.9029307083508475</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="inlineStr"/>
+      <c r="D20" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.6724052164999194</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>5.821892215510287</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>10.54769789148832</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.1776868263697831</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.1048919701305639</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1404482423622169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-0.5803161442116288</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.7705430761505064</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.4914520836229755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>1.544481501356558</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.116828653235392</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.8929562600263625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.2491000927848131</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.09349992988978165</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1522807405457253</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.6646859501014897</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.527775396103494</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.4590949874978911</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>3.875337727214194</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.386140140354283</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.256016238630041</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +969,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
